--- a/vizburok.xlsx
+++ b/vizburok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\kviz\Új mappa\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\focikviz\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32B079-7CAB-4D89-9899-DB5695C127AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A7624-7ACA-44BA-9BDD-03549FAC890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>kerdés</t>
   </si>
@@ -326,9 +326,6 @@
     <t>A tengerek melyik típusába tartozik a képen látható tenger?</t>
   </si>
   <si>
-    <t>A tópustulása melyik stádiuma hiányzik a felsorolásból: fertő, mocsár …?</t>
-  </si>
-  <si>
     <t>láp</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>elgátolással;elgátolás</t>
+  </si>
+  <si>
+    <t>A tópusztulása melyik stádiuma hiányzik a felsorolásból: fertő, mocsár …?</t>
+  </si>
+  <si>
+    <t>kozepsoszakasz.jpg</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1310,9 @@
       <c r="D31" t="s">
         <v>83</v>
       </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
       <c r="F31" s="2">
         <v>2</v>
       </c>
@@ -1394,13 +1400,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -1412,13 +1418,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
         <v>98</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
       </c>
       <c r="F37" s="2">
         <v>4</v>

--- a/vizburok.xlsx
+++ b/vizburok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\focikviz\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A7624-7ACA-44BA-9BDD-03549FAC890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0074B3-2BCF-4381-AAD5-E610F94380F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>delta</t>
   </si>
   <si>
-    <t>Milyen körülémyek között alakul ki töcsértorkolat?</t>
-  </si>
-  <si>
     <t>peremtengerbe ömlő folyó;nagy árapály szintkülönbség, pusztító munka</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>kozepsoszakasz.jpg</t>
+  </si>
+  <si>
+    <t>Milyen körülémyek között alakul ki tölcsértorkolat?</t>
   </si>
 </sst>
 </file>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
@@ -1311,7 +1311,7 @@
         <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="2">
         <v>2</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
         <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
       </c>
       <c r="F35" s="2">
         <v>8</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
       </c>
       <c r="F37" s="2">
         <v>4</v>
